--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_182__Reeval_Sobol_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_182__Reeval_Sobol_Modell_1.3.xlsx
@@ -6133,10 +6133,10 @@
                   <c:v>45.96338272094727</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64.67826080322266</c:v>
+                  <c:v>64.67826843261719</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48.30509567260742</c:v>
+                  <c:v>48.30509185791016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>90.63996124267578</c:v>
@@ -6169,7 +6169,7 @@
                   <c:v>80.55796813964844</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>49.63090133666992</c:v>
+                  <c:v>49.63090515136719</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>81.07806396484375</c:v>
@@ -6181,7 +6181,7 @@
                   <c:v>51.86108016967773</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>28.24711990356445</c:v>
+                  <c:v>28.24712181091309</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>58.82066345214844</c:v>
@@ -6196,7 +6196,7 @@
                   <c:v>62.37628936767578</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>74.62232971191406</c:v>
+                  <c:v>74.62232208251953</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>78.01309967041016</c:v>
@@ -6205,7 +6205,7 @@
                   <c:v>82.9554443359375</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>80.73329925537109</c:v>
+                  <c:v>80.73328399658203</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>75.73125457763672</c:v>
@@ -6226,7 +6226,7 @@
                   <c:v>66.91304016113281</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>82.3878173828125</c:v>
+                  <c:v>82.38780975341797</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>78.57660675048828</c:v>
@@ -6235,16 +6235,16 @@
                   <c:v>73.96778106689453</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>30.17113494873047</c:v>
+                  <c:v>30.17112731933594</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>72.18621063232422</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>90.42018127441406</c:v>
+                  <c:v>90.42018890380859</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>82.17498779296875</c:v>
+                  <c:v>82.17499542236328</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>56.33088302612305</c:v>
@@ -6262,10 +6262,10 @@
                   <c:v>39.11344528198242</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>84.11785125732422</c:v>
+                  <c:v>84.11784362792969</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>15.00725269317627</c:v>
+                  <c:v>15.00725650787354</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>67.71312713623047</c:v>
@@ -6283,19 +6283,19 @@
                   <c:v>84.34456634521484</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>74.49376678466797</c:v>
+                  <c:v>74.4937744140625</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>57.24350357055664</c:v>
+                  <c:v>57.24349594116211</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>70.5572509765625</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>78.87150573730469</c:v>
+                  <c:v>78.87151336669922</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>50.01430892944336</c:v>
+                  <c:v>50.01430511474609</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>91.92657470703125</c:v>
@@ -6304,13 +6304,13 @@
                   <c:v>81.82407379150391</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>79.56768798828125</c:v>
+                  <c:v>79.56767272949219</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>75.41273498535156</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>43.48113250732422</c:v>
+                  <c:v>43.48112869262695</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>70.05482482910156</c:v>
@@ -6319,16 +6319,16 @@
                   <c:v>88.37652587890625</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>86.1993408203125</c:v>
+                  <c:v>86.19933319091797</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>81.21082305908203</c:v>
+                  <c:v>81.2108154296875</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>82.41717529296875</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>58.05326843261719</c:v>
+                  <c:v>58.05327606201172</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>75.29220581054688</c:v>
@@ -6337,7 +6337,7 @@
                   <c:v>32.57388305664062</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>86.99043273925781</c:v>
+                  <c:v>86.99041748046875</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>74.526123046875</c:v>
@@ -6346,7 +6346,7 @@
                   <c:v>90.46363067626953</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>20.49579620361328</c:v>
+                  <c:v>20.49579238891602</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>53.66958618164062</c:v>
@@ -6355,37 +6355,37 @@
                   <c:v>46.13547134399414</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>53.59366607666016</c:v>
+                  <c:v>53.59367370605469</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>54.4240837097168</c:v>
+                  <c:v>54.42407989501953</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>80.19557189941406</c:v>
+                  <c:v>80.19557952880859</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>86.23160552978516</c:v>
+                  <c:v>86.23161315917969</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>75.57417297363281</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>25.25553131103516</c:v>
+                  <c:v>25.25552940368652</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>28.03732681274414</c:v>
+                  <c:v>28.03732490539551</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>99.4185791015625</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>86.07597351074219</c:v>
+                  <c:v>86.07598114013672</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>89.49160003662109</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>58.27095413208008</c:v>
+                  <c:v>58.27095794677734</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>83.28103637695312</c:v>
@@ -6397,31 +6397,31 @@
                   <c:v>77.55150604248047</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>44.86252212524414</c:v>
+                  <c:v>44.86251831054688</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>65.46065521240234</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>78.79400634765625</c:v>
+                  <c:v>78.79399871826172</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>85.87651062011719</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>33.14827728271484</c:v>
+                  <c:v>33.14828491210938</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>82.67224884033203</c:v>
+                  <c:v>82.6722412109375</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>71.58351898193359</c:v>
+                  <c:v>71.58351135253906</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>81.46487426757812</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>76.42661285400391</c:v>
+                  <c:v>76.42660522460938</c:v>
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>72.70038604736328</c:v>
@@ -7279,7 +7279,7 @@
         <v>68.6634</v>
       </c>
       <c r="F7">
-        <v>64.67826080322266</v>
+        <v>64.67826843261719</v>
       </c>
       <c r="G7">
         <v>100</v>
@@ -7311,7 +7311,7 @@
         <v>49.0368</v>
       </c>
       <c r="F8">
-        <v>48.30509567260742</v>
+        <v>48.30509185791016</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7531,7 +7531,7 @@
         <v>51.4731</v>
       </c>
       <c r="F19">
-        <v>49.63090133666992</v>
+        <v>49.63090515136719</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>29.2626</v>
       </c>
       <c r="F23">
-        <v>28.24711990356445</v>
+        <v>28.24712181091309</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>62.4651</v>
       </c>
       <c r="F28">
-        <v>74.62232971191406</v>
+        <v>74.62232208251953</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>78.5082</v>
       </c>
       <c r="F31">
-        <v>80.73329925537109</v>
+        <v>80.73328399658203</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>83.1935</v>
       </c>
       <c r="F38">
-        <v>82.3878173828125</v>
+        <v>82.38780975341797</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>38.9776</v>
       </c>
       <c r="F41">
-        <v>30.17113494873047</v>
+        <v>30.17112731933594</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>86.46259999999999</v>
       </c>
       <c r="F43">
-        <v>90.42018127441406</v>
+        <v>90.42018890380859</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>85.48820000000001</v>
       </c>
       <c r="F44">
-        <v>82.17498779296875</v>
+        <v>82.17499542236328</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>78.6082</v>
       </c>
       <c r="F50">
-        <v>84.11785125732422</v>
+        <v>84.11784362792969</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>23.918</v>
       </c>
       <c r="F51">
-        <v>15.00725269317627</v>
+        <v>15.00725650787354</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>71.977</v>
       </c>
       <c r="F57">
-        <v>74.49376678466797</v>
+        <v>74.4937744140625</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>51.7094</v>
       </c>
       <c r="F58">
-        <v>57.24350357055664</v>
+        <v>57.24349594116211</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>76.94629999999999</v>
       </c>
       <c r="F60">
-        <v>78.87150573730469</v>
+        <v>78.87151336669922</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>87.4046</v>
       </c>
       <c r="F61">
-        <v>50.01430892944336</v>
+        <v>50.01430511474609</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>83.78440000000001</v>
       </c>
       <c r="F64">
-        <v>79.56768798828125</v>
+        <v>79.56767272949219</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>38.8903</v>
       </c>
       <c r="F66">
-        <v>43.48113250732422</v>
+        <v>43.48112869262695</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>91.7517</v>
       </c>
       <c r="F69">
-        <v>86.1993408203125</v>
+        <v>86.19933319091797</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>79.62130000000001</v>
       </c>
       <c r="F70">
-        <v>81.21082305908203</v>
+        <v>81.2108154296875</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>61.5791</v>
       </c>
       <c r="F72">
-        <v>58.05326843261719</v>
+        <v>58.05327606201172</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>86.751</v>
       </c>
       <c r="F75">
-        <v>86.99043273925781</v>
+        <v>86.99041748046875</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>21.8916</v>
       </c>
       <c r="F78">
-        <v>20.49579620361328</v>
+        <v>20.49579238891602</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>55.7459</v>
       </c>
       <c r="F81">
-        <v>53.59366607666016</v>
+        <v>53.59367370605469</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>58.0646</v>
       </c>
       <c r="F82">
-        <v>54.4240837097168</v>
+        <v>54.42407989501953</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>74.2764</v>
       </c>
       <c r="F83">
-        <v>80.19557189941406</v>
+        <v>80.19557952880859</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>85.5154</v>
       </c>
       <c r="F84">
-        <v>86.23160552978516</v>
+        <v>86.23161315917969</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>22.8756</v>
       </c>
       <c r="F86">
-        <v>25.25553131103516</v>
+        <v>25.25552940368652</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>28.121</v>
       </c>
       <c r="F87">
-        <v>28.03732681274414</v>
+        <v>28.03732490539551</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>90.2206</v>
       </c>
       <c r="F89">
-        <v>86.07597351074219</v>
+        <v>86.07598114013672</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>57.9143</v>
       </c>
       <c r="F91">
-        <v>58.27095413208008</v>
+        <v>58.27095794677734</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -9051,7 +9051,7 @@
         <v>43.9895</v>
       </c>
       <c r="F95">
-        <v>44.86252212524414</v>
+        <v>44.86251831054688</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -9091,7 +9091,7 @@
         <v>80.28619999999999</v>
       </c>
       <c r="F97">
-        <v>78.79400634765625</v>
+        <v>78.79399871826172</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -9131,7 +9131,7 @@
         <v>21.5603</v>
       </c>
       <c r="F99">
-        <v>33.14827728271484</v>
+        <v>33.14828491210938</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9151,7 +9151,7 @@
         <v>80.6146</v>
       </c>
       <c r="F100">
-        <v>82.67224884033203</v>
+        <v>82.6722412109375</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9171,7 +9171,7 @@
         <v>84.7376</v>
       </c>
       <c r="F101">
-        <v>71.58351898193359</v>
+        <v>71.58351135253906</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -9211,7 +9211,7 @@
         <v>62.6855</v>
       </c>
       <c r="F103">
-        <v>76.42661285400391</v>
+        <v>76.42660522460938</v>
       </c>
     </row>
     <row r="104" spans="1:6">
